--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139474.614088002</v>
+        <v>1137038.977164295</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.7172236952937</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.8214203210749</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>137.9582238800491</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9970659708667</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292601</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.93482921064917</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>109.9022384814624</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>65.72456219185311</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>22.05778319390821</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.259425062653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>298.2346780688376</v>
+        <v>227.5436823653203</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>97.97552699114088</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458122</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.75316679403511</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>124.1004521009512</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>88.9041527332113</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001815</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411796</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>142.8837914811953</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>54.70729006300807</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>85.0836845898981</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>219.2450387532278</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.584653352091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695614</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>3.475606507923894</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833829</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>55.52079624060103</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>167.8921037048603</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.52079624060496</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187856</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819407</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>4.019807611471797</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>38.2187527515793</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>82.30974811734258</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678029</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892427964</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788178366</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410101</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
         <v>624.6477645191717</v>
@@ -4483,55 +4483,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.46409084602</v>
+        <v>995.5569830750376</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.046920809059</v>
+        <v>995.5569830750376</v>
       </c>
       <c r="X4" t="n">
-        <v>1320.057369911042</v>
+        <v>995.5569830750376</v>
       </c>
       <c r="Y4" t="n">
-        <v>1099.264790767512</v>
+        <v>774.7644039315074</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>850.8512289546543</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4641,7 +4641,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4674,22 +4674,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610487</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046005</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676399</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696226</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y7" t="n">
-        <v>231.8553933260925</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.758282883553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>846.7957659431409</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>488.5300673363904</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3303.325232524415</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3303.325232524415</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.794755798251</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.73186845468</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.963213184566</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.497454923486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.358122947674</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4996,16 +4996,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2219.090375303035</v>
+        <v>1739.06094317358</v>
       </c>
       <c r="C11" t="n">
-        <v>1850.127858362623</v>
+        <v>1370.098426233169</v>
       </c>
       <c r="D11" t="n">
-        <v>1491.862159755873</v>
+        <v>1011.832727626419</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.073907157629</v>
+        <v>1011.832727626419</v>
       </c>
       <c r="F11" t="n">
-        <v>695.0880023680211</v>
+        <v>600.846822836811</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>371.0047194374977</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>78.51106622469247</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469247</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386843</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420305</v>
+        <v>704.5155104420337</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.484858878113</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.18066176543</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.226377687108</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856291</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882249</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.5533112346</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>3826.58813245567</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197144</v>
+        <v>3826.58813245567</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604048</v>
+        <v>3573.097416088279</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604048</v>
+        <v>3242.034528744708</v>
       </c>
       <c r="W11" t="n">
-        <v>3369.295305604048</v>
+        <v>2889.265873474594</v>
       </c>
       <c r="X11" t="n">
-        <v>2995.829547342968</v>
+        <v>2515.800115213514</v>
       </c>
       <c r="Y11" t="n">
-        <v>2605.690215367157</v>
+        <v>2125.660783237702</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.3627498550305</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.511066224692</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246918</v>
+        <v>196.8120623792133</v>
       </c>
       <c r="K12" t="n">
-        <v>78.5110662246918</v>
+        <v>477.1621322376513</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520012</v>
+        <v>900.4499396649617</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.11264789589</v>
+        <v>1413.763713908852</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.420955246957</v>
+        <v>1955.07202125992</v>
       </c>
       <c r="O12" t="n">
-        <v>2029.392508112706</v>
+        <v>2428.04357412567</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.66081095286</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.8650582458548</v>
+        <v>465.3198276129293</v>
       </c>
       <c r="C13" t="n">
-        <v>78.5110662246918</v>
+        <v>465.3198276129293</v>
       </c>
       <c r="D13" t="n">
-        <v>78.5110662246918</v>
+        <v>315.2031882005936</v>
       </c>
       <c r="E13" t="n">
-        <v>78.5110662246918</v>
+        <v>315.2031882005936</v>
       </c>
       <c r="F13" t="n">
-        <v>78.5110662246918</v>
+        <v>168.3132407026832</v>
       </c>
       <c r="G13" t="n">
-        <v>78.5110662246918</v>
+        <v>168.3132407026832</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.511066224692</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.511066224692</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600403</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457711</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888914</v>
+        <v>717.5002252888928</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715851</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>1968.10837990699</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920201</v>
+        <v>1747.294322457036</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.39731136049</v>
+        <v>1458.203615897324</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154603</v>
+        <v>1203.519127691437</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176419</v>
+        <v>914.1019576544768</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196246</v>
+        <v>686.1124067564594</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5135230760944</v>
+        <v>465.3198276129293</v>
       </c>
     </row>
     <row r="14">
@@ -5261,61 +5261,61 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128779</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
         <v>3093.963640945777</v>
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>106.3138404733493</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733493</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254768</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124813</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.6674866466262</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C16" t="n">
-        <v>537.7313037187193</v>
+        <v>846.8182155057104</v>
       </c>
       <c r="D16" t="n">
-        <v>387.6146643063837</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239907</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608048</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608048</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693319</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149097</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863479</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="U16" t="n">
-        <v>1881.199739761261</v>
+        <v>1956.129370463825</v>
       </c>
       <c r="V16" t="n">
-        <v>1626.515251555374</v>
+        <v>1701.444882257938</v>
       </c>
       <c r="W16" t="n">
-        <v>1337.098081518413</v>
+        <v>1646.184993305405</v>
       </c>
       <c r="X16" t="n">
-        <v>1109.108530620396</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="Y16" t="n">
-        <v>888.315951476866</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876727</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597658</v>
+        <v>847.6442739835327</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474301</v>
+        <v>697.527634571197</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474301</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820187</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179124</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991039</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.527634571197</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>697.527634571197</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>549.614540988804</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5978,40 +5978,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>763.7541388327611</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>594.8179559048542</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998287</v>
+        <v>444.7013164925186</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797189</v>
+        <v>296.7882229101256</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>149.8982754122154</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>149.8982754122154</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603198</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947396</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741509</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704548</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>1166.195182806531</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>945.4026036630008</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.6725264685176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406107</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282751</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458821</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6394,7 +6394,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279803</v>
@@ -6409,25 +6409,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216013</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377265</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442287</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987573</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.899304487669</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597622</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597622</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820191</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.01105178323</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>1419.021500885213</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179088</v>
+        <v>1198.228921741683</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,13 +6859,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311987</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7557007032917</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602303</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614385</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614385</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400689</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121621</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782939</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290589</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925714</v>
+        <v>916.2946447138388</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490413</v>
+        <v>695.5020655703087</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="44">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>112.1950131448118</v>
+        <v>182.8860088483291</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238004</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>43.1463689976766</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>53.8885522068565</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>89.7150774703403</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146327</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729271</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>50.2915261372894</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>143.3016600672251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>231.8157082735829</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>80.44045370237075</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>32.89260457060018</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.7088678813232</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823088</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>84.77391660562286</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>11.93987647707701</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>142.4141550350974</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>213.9188905722487</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>64.12421452922659</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393271</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194332</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.4693302300329</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875799.9884236836</v>
+        <v>875799.9884236847</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952907.8351148836</v>
+        <v>952907.8351148838</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876634</v>
+        <v>423807.2415876639</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918677</v>
+        <v>461540.8686918678</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
@@ -26347,7 +26347,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185155</v>
+        <v>143114.1392185178</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051378</v>
+        <v>166521.3471051363</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557958</v>
+        <v>11167.23623557868</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115327</v>
+        <v>37377.32855115392</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848906</v>
+        <v>43782.40655848867</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224857</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813259</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813257</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="E4" t="n">
         <v>10457.96732947516</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214727</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1054323.791675155</v>
       </c>
       <c r="C6" t="n">
-        <v>274420.9540524372</v>
+        <v>274420.9540524377</v>
       </c>
       <c r="D6" t="n">
         <v>274420.954052437</v>
       </c>
       <c r="E6" t="n">
-        <v>184141.4128775256</v>
+        <v>183931.448633679</v>
       </c>
       <c r="F6" t="n">
-        <v>184326.8374073357</v>
+        <v>184280.9324117716</v>
       </c>
       <c r="G6" t="n">
-        <v>341262.4404754856</v>
+        <v>341227.702550051</v>
       </c>
       <c r="H6" t="n">
-        <v>352429.6767110654</v>
+        <v>352394.9387856298</v>
       </c>
       <c r="I6" t="n">
-        <v>352429.6767110653</v>
+        <v>352394.9387856295</v>
       </c>
       <c r="J6" t="n">
-        <v>134898.4743137879</v>
+        <v>134863.7363883521</v>
       </c>
       <c r="K6" t="n">
-        <v>352429.6767110655</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="L6" t="n">
-        <v>352429.6767110654</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="M6" t="n">
-        <v>315052.3481599121</v>
+        <v>315017.6102344758</v>
       </c>
       <c r="N6" t="n">
-        <v>308647.2701525763</v>
+        <v>308612.5322271409</v>
       </c>
       <c r="O6" t="n">
-        <v>349406.3787338405</v>
+        <v>349371.6408084051</v>
       </c>
       <c r="P6" t="n">
-        <v>352429.6767110653</v>
+        <v>352394.9387856296</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086475</v>
+        <v>981.38832780865</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012574</v>
+        <v>122.3935669012592</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218283</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063549</v>
+        <v>149.9868724063575</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.7569625173569</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063549</v>
+        <v>149.9868724063575</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.7569625173569</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063549</v>
+        <v>149.9868724063575</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.7569625173569</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.5207149607598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.010559860862372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>114.1794194437789</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>82.87897977084475</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>168.0688818921509</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.8971509712881</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>142.2354048423656</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>317.0092794716275</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>87.12997859426761</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.148294190052504e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.808509063674137e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-7.032208304403596e-13</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.913582273267547e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-9.663381206337365e-13</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.72002397398234e-12</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485655</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508997</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380259</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307184</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.8697634726063</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216981</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857436</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898398</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294417</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615145</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.2341787895593</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356985</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951045</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475346</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188523</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969426</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191525</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.76921320596489</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783044</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202559</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256413</v>
+        <v>566.1178216256423</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>660.6327957845338</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147148</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>620.3452877431816</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205469</v>
+        <v>266.1421801896141</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.9200147126281</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697592</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190412</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236087</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737177</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691798</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836914</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619744</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.980861550918</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.6467528263713</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973098</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050063</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761899</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916782</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570622</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929616</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.339672552826915</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.119229862376514</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>151.4800422544285</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040322</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276258</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517108</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584709</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.0967705932489</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.955268607755</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.517153706245</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151098</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.52095692156638</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116377</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458969</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457672</v>
+        <v>427.5634418457681</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>518.4987618625155</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313816</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>477.7490432987372</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062166</v>
+        <v>132.1677727752838</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.9382406266066</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.18259316701858</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360916</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112341</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882119</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765384</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.549444619046</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410834</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.8756671399838</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>13.63860328006948</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970737</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295242</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
